--- a/resolution-filters/resolution-filters/resolution filters.xlsx
+++ b/resolution-filters/resolution-filters/resolution filters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c82be81150d843e/Ham Radio/KiCad Files/W7ZOI Spectrum Analyzer/resolution-filters/resolution-filters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F39207-23F3-4A8F-8481-34377905C8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E3D0E2DA-DD40-402E-B782-E9AAD867B6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1C135-3CE8-47E6-A489-1F1BC47E3338}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <t>Index</t>
   </si>
@@ -238,10 +238,10 @@
     <t>0.24000</t>
   </si>
   <si>
-    <t>$0.24</t>
-  </si>
-  <si>
-    <t>C521</t>
+    <t>$0.48</t>
+  </si>
+  <si>
+    <t>C506, C521</t>
   </si>
   <si>
     <t>K121J15C0GF5TL2</t>
@@ -425,6 +425,51 @@
   </si>
   <si>
     <t>$11.26</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 100V 200MA DO35</t>
+  </si>
+  <si>
+    <t>1N4148FS-ND</t>
+  </si>
+  <si>
+    <t>D501, D502</t>
+  </si>
+  <si>
+    <t>ZOR-25-B-52-0R</t>
+  </si>
+  <si>
+    <t>RES 0 OHM JUMPER 1/4W AXIAL</t>
+  </si>
+  <si>
+    <t>0.0QBK-ND</t>
+  </si>
+  <si>
+    <t>0.15000</t>
+  </si>
+  <si>
+    <t>$0.15</t>
+  </si>
+  <si>
+    <t>R510</t>
+  </si>
+  <si>
+    <t>CFR-25JB-52-10M</t>
+  </si>
+  <si>
+    <t>RES 10M OHM 5% 1/4W AXIAL</t>
+  </si>
+  <si>
+    <t>10MQBK-ND</t>
+  </si>
+  <si>
+    <t>R509, R511</t>
   </si>
 </sst>
 </file>
@@ -773,9 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -1138,10 +1185,10 @@
         <v>69</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -1578,6 +1625,120 @@
       </c>
       <c r="M21" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
